--- a/final_data_pipeline/output/322291longform_elec_options.xlsx
+++ b/final_data_pipeline/output/322291longform_elec_options.xlsx
@@ -632,7 +632,7 @@
         <v>37</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -647,10 +647,10 @@
         <v>2124938.387822535</v>
       </c>
       <c r="R3">
-        <v>1.25875</v>
+        <v>1.181188907392658</v>
       </c>
       <c r="S3">
-        <v>1.318088235294118</v>
+        <v>1.232403941639294</v>
       </c>
       <c r="T3">
         <v>265.6172984778169</v>
@@ -685,7 +685,7 @@
         <v>37</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -700,10 +700,10 @@
         <v>2372685.424883977</v>
       </c>
       <c r="R4">
-        <v>1.25875</v>
+        <v>1.194245973645681</v>
       </c>
       <c r="S4">
-        <v>1.318088235294118</v>
+        <v>1.246785162287481</v>
       </c>
       <c r="T4">
         <v>296.5856781104972</v>
@@ -897,7 +897,7 @@
         <v>37</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L8">
         <v>8000</v>
@@ -912,10 +912,10 @@
         <v>987356.7481572829</v>
       </c>
       <c r="R8">
-        <v>1.25875</v>
+        <v>1.331198999020781</v>
       </c>
       <c r="S8">
-        <v>1.318088235294118</v>
+        <v>1.39868801294648</v>
       </c>
       <c r="T8">
         <v>123.4195935196604</v>
@@ -950,7 +950,7 @@
         <v>37</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>21.28240740740739</v>
       </c>
       <c r="L9">
         <v>8000</v>
@@ -965,10 +965,10 @@
         <v>1256343.936213275</v>
       </c>
       <c r="R9">
-        <v>1.25875</v>
+        <v>1.342924567132234</v>
       </c>
       <c r="S9">
-        <v>1.318088235294118</v>
+        <v>1.411784266254412</v>
       </c>
       <c r="T9">
         <v>157.0429920266594</v>
